--- a/File_bao_cao/FE_QA_2111.xlsx
+++ b/File_bao_cao/FE_QA_2111.xlsx
@@ -2,29 +2,27 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cty_remote\File_bao_cao\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
-    <sheet name="QA_FE_Report" sheetId="1" r:id="rId1"/>
+    <sheet name="KE_TOAN_NHU_Y" sheetId="1" r:id="rId1"/>
+    <sheet name="GIAI_PHAP_THE" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
   <si>
     <t>No</t>
-  </si>
-  <si>
-    <t>Website</t>
   </si>
   <si>
     <t>Page / URL</t>
@@ -42,17 +40,26 @@
     <t>Kết quả thực tế</t>
   </si>
   <si>
-    <t>Mức độ nghiêm trọng (Low/Medium/High/Critical)</t>
+    <t>Need Recheck</t>
   </si>
   <si>
-    <t>Trạng thái(Open/Fixed/Need Recheck)</t>
+    <t xml:space="preserve">Mức độ nghiêm trọng </t>
+  </si>
+  <si>
+    <t>Trạng thái</t>
+  </si>
+  <si>
+    <t>Thiếu text</t>
+  </si>
+  <si>
+    <t>https://ketoannhuy.com/bang-gia/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,6 +77,13 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -96,16 +110,242 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFF00"/>
+      <color rgb="FFFF3300"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -115,6 +355,49 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>238124</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1461168</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3419475" y="238124"/>
+          <a:ext cx="4175793" cy="1685926"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -402,186 +685,512 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I27"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="60.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="46.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="58.7" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="H27" s="2"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="G2">
+    <cfRule type="cellIs" dxfId="1" priority="11" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"Open"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>"Fixed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"Need Recheck"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H27">
+    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
+      <formula>"Need Recheck"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
+      <formula>"Fixed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2">
+    <cfRule type="cellIs" dxfId="5" priority="9" stopIfTrue="1" operator="equal">
+      <formula>"Critical"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="10" stopIfTrue="1" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G27 F2">
+      <formula1>"Low,Medium,High,Critical"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H27 G2">
+      <formula1>"Open,Fixed,Need Recheck"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="1:8" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>26</v>
       </c>
+      <c r="H27" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <conditionalFormatting sqref="G2">
+    <cfRule type="cellIs" dxfId="17" priority="4" operator="equal">
+      <formula>"Critical"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="5" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="6" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="7" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H27">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
+      <formula>"Need Recheck"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
+      <formula>"Fixed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H27">
+      <formula1>"Open,Fixed,Need Recheck"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G27">
+      <formula1>"Low,Medium,High,Critical"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>